--- a/published-data/fonds-solidarite/fds-2022-06-10/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-10/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -18556,13 +18556,13 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>28621</v>
+        <v>28622</v>
       </c>
       <c r="D356" t="n">
         <v>3123</v>
       </c>
       <c r="E356" t="n">
-        <v>171989789</v>
+        <v>172011826</v>
       </c>
       <c r="F356" t="inlineStr">
         <is>
@@ -21157,13 +21157,13 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>7558</v>
+        <v>7559</v>
       </c>
       <c r="D407" t="n">
         <v>816</v>
       </c>
       <c r="E407" t="n">
-        <v>37634900</v>
+        <v>37639283</v>
       </c>
       <c r="F407" t="inlineStr">
         <is>
@@ -26869,13 +26869,13 @@
         </is>
       </c>
       <c r="C519" t="n">
-        <v>13362</v>
+        <v>13365</v>
       </c>
       <c r="D519" t="n">
         <v>1373</v>
       </c>
       <c r="E519" t="n">
-        <v>74323398</v>
+        <v>74335823</v>
       </c>
       <c r="F519" t="inlineStr">
         <is>
@@ -27685,13 +27685,13 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>7075</v>
+        <v>7076</v>
       </c>
       <c r="D535" t="n">
         <v>717</v>
       </c>
       <c r="E535" t="n">
-        <v>32824142</v>
+        <v>32826523</v>
       </c>
       <c r="F535" t="inlineStr">
         <is>
@@ -31204,13 +31204,13 @@
         </is>
       </c>
       <c r="C604" t="n">
-        <v>21451</v>
+        <v>21452</v>
       </c>
       <c r="D604" t="n">
         <v>2191</v>
       </c>
       <c r="E604" t="n">
-        <v>151224325</v>
+        <v>151226313</v>
       </c>
       <c r="F604" t="inlineStr">
         <is>
@@ -40027,13 +40027,13 @@
         </is>
       </c>
       <c r="C777" t="n">
-        <v>2981</v>
+        <v>2982</v>
       </c>
       <c r="D777" t="n">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="E777" t="n">
-        <v>4027317</v>
+        <v>4027392</v>
       </c>
       <c r="F777" t="inlineStr">
         <is>
@@ -42169,13 +42169,13 @@
         </is>
       </c>
       <c r="C819" t="n">
-        <v>42281</v>
+        <v>42285</v>
       </c>
       <c r="D819" t="n">
         <v>4810</v>
       </c>
       <c r="E819" t="n">
-        <v>95166875</v>
+        <v>95172243</v>
       </c>
       <c r="F819" t="inlineStr">
         <is>
@@ -43444,13 +43444,13 @@
         </is>
       </c>
       <c r="C844" t="n">
-        <v>11121</v>
+        <v>11122</v>
       </c>
       <c r="D844" t="n">
         <v>4184</v>
       </c>
       <c r="E844" t="n">
-        <v>15022629</v>
+        <v>15024129</v>
       </c>
       <c r="F844" t="inlineStr">
         <is>
@@ -43648,13 +43648,13 @@
         </is>
       </c>
       <c r="C848" t="n">
-        <v>21662</v>
+        <v>21663</v>
       </c>
       <c r="D848" t="n">
         <v>4245</v>
       </c>
       <c r="E848" t="n">
-        <v>86091935</v>
+        <v>86093435</v>
       </c>
       <c r="F848" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>182248</v>
+        <v>182255</v>
       </c>
       <c r="D854" t="n">
         <v>17497</v>
       </c>
       <c r="E854" t="n">
-        <v>1648621417</v>
+        <v>1648716346</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44005,13 +44005,13 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>60066</v>
+        <v>60068</v>
       </c>
       <c r="D855" t="n">
         <v>9813</v>
       </c>
       <c r="E855" t="n">
-        <v>288799260</v>
+        <v>288817097</v>
       </c>
       <c r="F855" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>183904</v>
+        <v>183910</v>
       </c>
       <c r="D858" t="n">
-        <v>35382</v>
+        <v>35383</v>
       </c>
       <c r="E858" t="n">
-        <v>553791049</v>
+        <v>553811318</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44362,13 +44362,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>114986</v>
+        <v>114988</v>
       </c>
       <c r="D862" t="n">
         <v>14332</v>
       </c>
       <c r="E862" t="n">
-        <v>418732620</v>
+        <v>418737138</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -44413,13 +44413,13 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>48554</v>
+        <v>48556</v>
       </c>
       <c r="D863" t="n">
         <v>8874</v>
       </c>
       <c r="E863" t="n">
-        <v>133133515</v>
+        <v>133136515</v>
       </c>
       <c r="F863" t="inlineStr">
         <is>
@@ -46504,13 +46504,13 @@
         </is>
       </c>
       <c r="C904" t="n">
-        <v>75231</v>
+        <v>75232</v>
       </c>
       <c r="D904" t="n">
         <v>8098</v>
       </c>
       <c r="E904" t="n">
-        <v>168656198</v>
+        <v>168661643</v>
       </c>
       <c r="F904" t="inlineStr">
         <is>
@@ -46606,13 +46606,13 @@
         </is>
       </c>
       <c r="C906" t="n">
-        <v>8671</v>
+        <v>8675</v>
       </c>
       <c r="D906" t="n">
         <v>1653</v>
       </c>
       <c r="E906" t="n">
-        <v>19788834</v>
+        <v>19845091</v>
       </c>
       <c r="F906" t="inlineStr">
         <is>
@@ -48187,13 +48187,13 @@
         </is>
       </c>
       <c r="C937" t="n">
-        <v>19628</v>
+        <v>19630</v>
       </c>
       <c r="D937" t="n">
         <v>4565</v>
       </c>
       <c r="E937" t="n">
-        <v>66965616</v>
+        <v>67058846</v>
       </c>
       <c r="F937" t="inlineStr">
         <is>
@@ -61090,13 +61090,13 @@
         </is>
       </c>
       <c r="C1190" t="n">
-        <v>14376</v>
+        <v>14377</v>
       </c>
       <c r="D1190" t="n">
         <v>2709</v>
       </c>
       <c r="E1190" t="n">
-        <v>47786805</v>
+        <v>47796211</v>
       </c>
       <c r="F1190" t="inlineStr">
         <is>
@@ -61141,13 +61141,13 @@
         </is>
       </c>
       <c r="C1191" t="n">
-        <v>15049</v>
+        <v>15050</v>
       </c>
       <c r="D1191" t="n">
         <v>2498</v>
       </c>
       <c r="E1191" t="n">
-        <v>25322413</v>
+        <v>25332413</v>
       </c>
       <c r="F1191" t="inlineStr">
         <is>
@@ -72259,13 +72259,13 @@
         </is>
       </c>
       <c r="C1409" t="n">
-        <v>8192</v>
+        <v>8195</v>
       </c>
       <c r="D1409" t="n">
         <v>1802</v>
       </c>
       <c r="E1409" t="n">
-        <v>16072942</v>
+        <v>16089646</v>
       </c>
       <c r="F1409" t="inlineStr">
         <is>
@@ -83020,13 +83020,13 @@
         </is>
       </c>
       <c r="C1620" t="n">
-        <v>28431</v>
+        <v>28432</v>
       </c>
       <c r="D1620" t="n">
         <v>3812</v>
       </c>
       <c r="E1620" t="n">
-        <v>76939785</v>
+        <v>77139785</v>
       </c>
       <c r="F1620" t="inlineStr">
         <is>
@@ -85978,13 +85978,13 @@
         </is>
       </c>
       <c r="C1678" t="n">
-        <v>5195</v>
+        <v>5196</v>
       </c>
       <c r="D1678" t="n">
         <v>847</v>
       </c>
       <c r="E1678" t="n">
-        <v>7874266</v>
+        <v>7875766</v>
       </c>
       <c r="F1678" t="inlineStr">
         <is>
